--- a/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/纺织、服装及皮革产品制造业.xlsx
+++ b/data_year/zb/国民经济核算/投入产出基本流量表/中间使用部分/纺织、服装及皮革产品制造业.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y9"/>
+  <dimension ref="A1:Y6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -558,623 +558,376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1462122.57</v>
+        <v>9316436.30101686</v>
       </c>
       <c r="C2" t="n">
-        <v>172520.38</v>
+        <v>3836403.09114086</v>
       </c>
       <c r="D2" t="n">
-        <v>14297790</v>
+        <v>62778411.5436274</v>
       </c>
       <c r="E2" t="n">
-        <v>14821590</v>
+        <v>49582121.9913804</v>
       </c>
       <c r="F2" t="n">
-        <v>115377.6</v>
+        <v>139328.346485817</v>
       </c>
       <c r="G2" t="n">
-        <v>1405784.6</v>
+        <v>9208345.291735349</v>
       </c>
       <c r="H2" t="n">
-        <v>9104068</v>
+        <v>11142629.4720399</v>
       </c>
       <c r="I2" t="n">
-        <v>2321165.7</v>
+        <v>8567601.16146669</v>
       </c>
       <c r="J2" t="n">
-        <v>357705.27</v>
+        <v>2291032.16237399</v>
       </c>
       <c r="K2" t="n">
-        <v>1470560</v>
+        <v>8479185.69265788</v>
       </c>
       <c r="L2" t="n">
-        <v>125946715.203</v>
+        <v>454191823.319245</v>
       </c>
       <c r="M2" t="n">
-        <v>20351218.0088055</v>
+        <v>59503216.4494123</v>
       </c>
       <c r="N2" t="n">
-        <v>8593984.82673447</v>
+        <v>11709066.7631607</v>
       </c>
       <c r="O2" t="n">
-        <v>44945383.0651604</v>
+        <v>113526154.069799</v>
       </c>
       <c r="P2" t="n">
-        <v>170892098.268161</v>
+        <v>567717977.389044</v>
       </c>
       <c r="Q2" t="n">
-        <v>72946931</v>
+        <v>247546835.178968</v>
       </c>
       <c r="R2" t="n">
-        <v>8570927.50226585</v>
+        <v>19934070.1045054</v>
       </c>
       <c r="S2" t="n">
-        <v>7429252.72735454</v>
+        <v>22379800.7527209</v>
       </c>
       <c r="T2" t="n">
-        <v>2610251.4</v>
+        <v>13712425.1582079</v>
       </c>
       <c r="U2" t="n">
-        <v>387774.383</v>
+        <v>2141602.12840939</v>
       </c>
       <c r="V2" t="n">
-        <v>464741.3</v>
+        <v>2184167.99133811</v>
       </c>
       <c r="W2" t="n">
-        <v>1407194</v>
+        <v>7630612.71458583</v>
       </c>
       <c r="X2" t="n">
-        <v>169958.7</v>
+        <v>1085704.04669303</v>
       </c>
       <c r="Y2" t="n">
-        <v>2431180.3</v>
+        <v>14548981.0471169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2194545.46710254</v>
+        <v>6045303.14665728</v>
       </c>
       <c r="C3" t="n">
-        <v>1414760.09511811</v>
+        <v>3676813.06302333</v>
       </c>
       <c r="D3" t="n">
-        <v>14929518.0096171</v>
+        <v>73490811.3047756</v>
       </c>
       <c r="E3" t="n">
-        <v>13670509.2575895</v>
+        <v>55845849.8971805</v>
       </c>
       <c r="F3" t="n">
-        <v>66420.40509737479</v>
+        <v>658204.364507606</v>
       </c>
       <c r="G3" t="n">
-        <v>4018055.33359469</v>
+        <v>4815239.1839918</v>
       </c>
       <c r="H3" t="n">
-        <v>8525567.37159477</v>
+        <v>36600516.9600769</v>
       </c>
       <c r="I3" t="n">
-        <v>2929626.93683408</v>
+        <v>4855200.71705097</v>
       </c>
       <c r="J3" t="n">
-        <v>465639.85849713</v>
+        <v>955442.941278825</v>
       </c>
       <c r="K3" t="n">
-        <v>2582377.95835857</v>
+        <v>9561630.00009382</v>
       </c>
       <c r="L3" t="n">
-        <v>117744729.883112</v>
+        <v>530028180.930515</v>
       </c>
       <c r="M3" t="n">
-        <v>18459317.0335143</v>
+        <v>67871780.26197261</v>
       </c>
       <c r="N3" t="n">
-        <v>5010471.52951835</v>
+        <v>13535654.2500024</v>
       </c>
       <c r="O3" t="n">
-        <v>38609628.3512055</v>
+        <v>132792602.839959</v>
       </c>
       <c r="P3" t="n">
-        <v>156354358.234318</v>
+        <v>662820783.770474</v>
       </c>
       <c r="Q3" t="n">
-        <v>58077333.6256523</v>
+        <v>295462828.718794</v>
       </c>
       <c r="R3" t="n">
-        <v>6093461.78300171</v>
+        <v>17744167.3927175</v>
       </c>
       <c r="S3" t="n">
-        <v>9046378.0051712</v>
+        <v>33641000.9352668</v>
       </c>
       <c r="T3" t="n">
-        <v>3335444.30101985</v>
+        <v>14456224.4567959</v>
       </c>
       <c r="U3" t="n">
-        <v>509728.51719623</v>
+        <v>1605872.1539747</v>
       </c>
       <c r="V3" t="n">
-        <v>667973.267182366</v>
+        <v>1100063.63673419</v>
       </c>
       <c r="W3" t="n">
-        <v>1560268.99381263</v>
+        <v>7020004.24685555</v>
       </c>
       <c r="X3" t="n">
-        <v>327418.20652507</v>
+        <v>492842.271450297</v>
       </c>
       <c r="Y3" t="n">
-        <v>2469542.27832008</v>
+        <v>13385333.8672739</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3751798.31645902</v>
+        <v>7217743.93576588</v>
       </c>
       <c r="C4" t="n">
-        <v>3560144.50903152</v>
+        <v>4942781.8852825</v>
       </c>
       <c r="D4" t="n">
-        <v>31012593.8832028</v>
+        <v>106927648.831514</v>
       </c>
       <c r="E4" t="n">
-        <v>27083408.4810549</v>
+        <v>59701603.1142552</v>
       </c>
       <c r="F4" t="n">
-        <v>151369.494818935</v>
+        <v>764644.848800844</v>
       </c>
       <c r="G4" t="n">
-        <v>6058597.47055642</v>
+        <v>7753397.83108481</v>
       </c>
       <c r="H4" t="n">
-        <v>12006235.6043039</v>
+        <v>47832551.5429036</v>
       </c>
       <c r="I4" t="n">
-        <v>4830239.63310839</v>
+        <v>6183838.52607518</v>
       </c>
       <c r="J4" t="n">
-        <v>1130441.07776222</v>
+        <v>530400.142409772</v>
       </c>
       <c r="K4" t="n">
-        <v>5139124.71268687</v>
+        <v>8577666.735515591</v>
       </c>
       <c r="L4" t="n">
-        <v>216319757.275493</v>
+        <v>656300464.983832</v>
       </c>
       <c r="M4" t="n">
-        <v>27503029.0020619</v>
+        <v>92864860.8887893</v>
       </c>
       <c r="N4" t="n">
-        <v>7818374.46561318</v>
+        <v>16908200.5795625</v>
       </c>
       <c r="O4" t="n">
-        <v>64500343.4910661</v>
+        <v>178657068.677612</v>
       </c>
       <c r="P4" t="n">
-        <v>280820100.76656</v>
+        <v>834957533.6614439</v>
       </c>
       <c r="Q4" t="n">
-        <v>102906083.043122</v>
+        <v>361142140.570199</v>
       </c>
       <c r="R4" t="n">
-        <v>10205817.4953034</v>
+        <v>25884698.2269205</v>
       </c>
       <c r="S4" t="n">
-        <v>18973122.5280876</v>
+        <v>42999308.98234</v>
       </c>
       <c r="T4" t="n">
-        <v>8677713.33260043</v>
+        <v>16097917.966007</v>
       </c>
       <c r="U4" t="n">
-        <v>1322065.10723558</v>
+        <v>715114.608063668</v>
       </c>
       <c r="V4" t="n">
-        <v>1255379.09717097</v>
+        <v>1183895.87409992</v>
       </c>
       <c r="W4" t="n">
-        <v>2150454.38790917</v>
+        <v>8523312.27153221</v>
       </c>
       <c r="X4" t="n">
-        <v>626596.169082697</v>
+        <v>540940.915493939</v>
       </c>
       <c r="Y4" t="n">
-        <v>4657512.95538773</v>
+        <v>17664865.3848293</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7110725.26327734</v>
+        <v>1431845.75846884</v>
       </c>
       <c r="C5" t="n">
-        <v>3015702.69435488</v>
+        <v>17636060.6242674</v>
       </c>
       <c r="D5" t="n">
-        <v>44092208.5075236</v>
-      </c>
-      <c r="E5" t="n">
-        <v>40750401.9805909</v>
-      </c>
+        <v>76034317.5227868</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>98445.88143846209</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5929103.59741689</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8238132.86821812</v>
-      </c>
+        <v>193399.024132466</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>6882443.98452577</v>
+        <v>5351256.24766146</v>
       </c>
       <c r="J5" t="n">
-        <v>2134594.81070439</v>
+        <v>71170936.35522141</v>
       </c>
       <c r="K5" t="n">
-        <v>7153135.68826897</v>
+        <v>9939188.15459968</v>
       </c>
       <c r="L5" t="n">
-        <v>343236817.464014</v>
+        <v>618021137.396605</v>
       </c>
       <c r="M5" t="n">
-        <v>37411997.2481651</v>
+        <v>83771409.3635032</v>
       </c>
       <c r="N5" t="n">
-        <v>8461686.156346779</v>
+        <v>13256786.7226246</v>
       </c>
       <c r="O5" t="n">
-        <v>89462465.64400449</v>
+        <v>139417772.957649</v>
       </c>
       <c r="P5" t="n">
-        <v>432699283.108018</v>
+        <v>757438910.354255</v>
       </c>
       <c r="Q5" t="n">
-        <v>188117751.690938</v>
+        <v>329219988.461905</v>
       </c>
       <c r="R5" t="n">
-        <v>19060065.8838515</v>
+        <v>3049609.11542297</v>
       </c>
       <c r="S5" t="n">
-        <v>24528716.3556411</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9363765.511053281</v>
-      </c>
+        <v>39339967.7560987</v>
+      </c>
+      <c r="T5" t="inlineStr"/>
       <c r="U5" t="n">
-        <v>1863066.81908644</v>
+        <v>2004359.16001112</v>
       </c>
       <c r="V5" t="n">
-        <v>1655480.69445305</v>
-      </c>
-      <c r="W5" t="n">
-        <v>5216168.4710502</v>
-      </c>
+        <v>2706976.79923283</v>
+      </c>
+      <c r="W5" t="inlineStr"/>
       <c r="X5" t="n">
-        <v>812110.16671203</v>
+        <v>539002.18547147</v>
       </c>
       <c r="Y5" t="n">
-        <v>10803578.8344007</v>
+        <v>13971008.604508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9316436.30101686</v>
+        <v>1365889.24193162</v>
       </c>
       <c r="C6" t="n">
-        <v>3836403.09114086</v>
+        <v>18970617.5548376</v>
       </c>
       <c r="D6" t="n">
-        <v>62778411.5436274</v>
-      </c>
-      <c r="E6" t="n">
-        <v>49582121.9913804</v>
-      </c>
+        <v>82006169.4863677</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>139328.346485817</v>
-      </c>
-      <c r="G6" t="n">
-        <v>9208345.291735349</v>
-      </c>
-      <c r="H6" t="n">
-        <v>11142629.4720399</v>
-      </c>
+        <v>226716.426076527</v>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
       <c r="I6" t="n">
-        <v>8567601.16146669</v>
+        <v>4278884.57181408</v>
       </c>
       <c r="J6" t="n">
-        <v>2291032.16237399</v>
+        <v>66782255.9483627</v>
       </c>
       <c r="K6" t="n">
-        <v>8479185.69265788</v>
+        <v>9739693.17466653</v>
       </c>
       <c r="L6" t="n">
-        <v>454191823.319245</v>
+        <v>612910570.176059</v>
       </c>
       <c r="M6" t="n">
-        <v>59503216.4494123</v>
+        <v>78070178.6100447</v>
       </c>
       <c r="N6" t="n">
-        <v>11709066.7631607</v>
+        <v>17159912.3984094</v>
       </c>
       <c r="O6" t="n">
-        <v>113526154.069799</v>
+        <v>144476356.638051</v>
       </c>
       <c r="P6" t="n">
-        <v>567717977.389044</v>
+        <v>757386926.81411</v>
       </c>
       <c r="Q6" t="n">
-        <v>247546835.178968</v>
+        <v>314846172.317828</v>
       </c>
       <c r="R6" t="n">
-        <v>19934070.1045054</v>
+        <v>1055456.5261335</v>
       </c>
       <c r="S6" t="n">
-        <v>22379800.7527209</v>
-      </c>
-      <c r="T6" t="n">
-        <v>13712425.1582079</v>
-      </c>
+        <v>48190809.1034634</v>
+      </c>
+      <c r="T6" t="inlineStr"/>
       <c r="U6" t="n">
-        <v>2141602.12840939</v>
+        <v>1830401.6531807</v>
       </c>
       <c r="V6" t="n">
-        <v>2184167.99133811</v>
-      </c>
-      <c r="W6" t="n">
-        <v>7630612.71458583</v>
-      </c>
+        <v>2767578.63818986</v>
+      </c>
+      <c r="W6" t="inlineStr"/>
       <c r="X6" t="n">
-        <v>1085704.04669303</v>
+        <v>571224.965780013</v>
       </c>
       <c r="Y6" t="n">
-        <v>14548981.0471169</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>6045303.14665728</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3676813.06302333</v>
-      </c>
-      <c r="D7" t="n">
-        <v>73490811.3047756</v>
-      </c>
-      <c r="E7" t="n">
-        <v>55845849.8971805</v>
-      </c>
-      <c r="F7" t="n">
-        <v>658204.364507606</v>
-      </c>
-      <c r="G7" t="n">
-        <v>4815239.1839918</v>
-      </c>
-      <c r="H7" t="n">
-        <v>36600516.9600769</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4855200.71705097</v>
-      </c>
-      <c r="J7" t="n">
-        <v>955442.941278825</v>
-      </c>
-      <c r="K7" t="n">
-        <v>9561630.00009382</v>
-      </c>
-      <c r="L7" t="n">
-        <v>530028180.930515</v>
-      </c>
-      <c r="M7" t="n">
-        <v>67871780.26197261</v>
-      </c>
-      <c r="N7" t="n">
-        <v>13535654.2500024</v>
-      </c>
-      <c r="O7" t="n">
-        <v>132792602.839959</v>
-      </c>
-      <c r="P7" t="n">
-        <v>662820783.770474</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>295462828.718794</v>
-      </c>
-      <c r="R7" t="n">
-        <v>17744167.3927175</v>
-      </c>
-      <c r="S7" t="n">
-        <v>33641000.9352668</v>
-      </c>
-      <c r="T7" t="n">
-        <v>14456224.4567959</v>
-      </c>
-      <c r="U7" t="n">
-        <v>1605872.1539747</v>
-      </c>
-      <c r="V7" t="n">
-        <v>1100063.63673419</v>
-      </c>
-      <c r="W7" t="n">
-        <v>7020004.24685555</v>
-      </c>
-      <c r="X7" t="n">
-        <v>492842.271450297</v>
-      </c>
-      <c r="Y7" t="n">
-        <v>13385333.8672739</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>7217743.93576588</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4942781.8852825</v>
-      </c>
-      <c r="D8" t="n">
-        <v>106927648.831514</v>
-      </c>
-      <c r="E8" t="n">
-        <v>59701603.1142552</v>
-      </c>
-      <c r="F8" t="n">
-        <v>764644.848800844</v>
-      </c>
-      <c r="G8" t="n">
-        <v>7753397.83108481</v>
-      </c>
-      <c r="H8" t="n">
-        <v>47832551.5429036</v>
-      </c>
-      <c r="I8" t="n">
-        <v>6183838.52607518</v>
-      </c>
-      <c r="J8" t="n">
-        <v>530400.142409772</v>
-      </c>
-      <c r="K8" t="n">
-        <v>8577666.735515591</v>
-      </c>
-      <c r="L8" t="n">
-        <v>656300464.983832</v>
-      </c>
-      <c r="M8" t="n">
-        <v>92864860.8887893</v>
-      </c>
-      <c r="N8" t="n">
-        <v>16908200.5795625</v>
-      </c>
-      <c r="O8" t="n">
-        <v>178657068.677612</v>
-      </c>
-      <c r="P8" t="n">
-        <v>834957533.6614439</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>361142140.570199</v>
-      </c>
-      <c r="R8" t="n">
-        <v>25884698.2269205</v>
-      </c>
-      <c r="S8" t="n">
-        <v>42999308.98234</v>
-      </c>
-      <c r="T8" t="n">
-        <v>16097917.966007</v>
-      </c>
-      <c r="U8" t="n">
-        <v>715114.608063668</v>
-      </c>
-      <c r="V8" t="n">
-        <v>1183895.87409992</v>
-      </c>
-      <c r="W8" t="n">
-        <v>8523312.27153221</v>
-      </c>
-      <c r="X8" t="n">
-        <v>540940.915493939</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>17664865.3848293</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1431845.75846884</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17636060.6242674</v>
-      </c>
-      <c r="D9" t="n">
-        <v>76034317.5227868</v>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="n">
-        <v>193399.024132466</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="n">
-        <v>5351256.24766146</v>
-      </c>
-      <c r="J9" t="n">
-        <v>71170936.35522141</v>
-      </c>
-      <c r="K9" t="n">
-        <v>9939188.15459968</v>
-      </c>
-      <c r="L9" t="n">
-        <v>618021137.396605</v>
-      </c>
-      <c r="M9" t="n">
-        <v>83771409.3635032</v>
-      </c>
-      <c r="N9" t="n">
-        <v>13256786.7226246</v>
-      </c>
-      <c r="O9" t="n">
-        <v>139417772.957649</v>
-      </c>
-      <c r="P9" t="n">
-        <v>757438910.354255</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>329219988.461905</v>
-      </c>
-      <c r="R9" t="n">
-        <v>3049609.11542297</v>
-      </c>
-      <c r="S9" t="n">
-        <v>39339967.7560987</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="n">
-        <v>2004359.16001112</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2706976.79923283</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
-      <c r="X9" t="n">
-        <v>539002.18547147</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>13971008.604508</v>
+        <v>14128691.5738324</v>
       </c>
     </row>
   </sheetData>
